--- a/高光谱遥感影像异常检测综述文献.xlsx
+++ b/高光谱遥感影像异常检测综述文献.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="14400" windowHeight="12375"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="110">
   <si>
     <t>论文题目</t>
   </si>
@@ -37,6 +37,12 @@
     <t>发表时间</t>
   </si>
   <si>
+    <t>方法名称</t>
+  </si>
+  <si>
+    <t>源代码</t>
+  </si>
+  <si>
     <t>Hyperspectral Anomaly Detection A survey</t>
   </si>
   <si>
@@ -47,6 +53,312 @@
   </si>
   <si>
     <t>A Review of Change Detection in Multitemporal Hyperspectral Images Current techniques, applications, and challenges</t>
+  </si>
+  <si>
+    <t>基于统计</t>
+  </si>
+  <si>
+    <t>Kernel RX-algorithm: a nonlinear anomaly detector for hyperspectral imagery. IEEE transactions on Geoscience and Remote Sensing</t>
+  </si>
+  <si>
+    <t>KRX</t>
+  </si>
+  <si>
+    <t>A novel cluster kernel RX algorithm for anomaly and change detection using Geoscience and Remote Sensing Letters</t>
+  </si>
+  <si>
+    <t>CKRX</t>
+  </si>
+  <si>
+    <t>A locally adaptive background density estimator: an evolution for RX-based anomaly detectors</t>
+  </si>
+  <si>
+    <t>LRX</t>
+  </si>
+  <si>
+    <t>Weighted-RXD and linear filter-based RXD: improving background statistics estimation for anomaly detection in hyperspectral imagery</t>
+  </si>
+  <si>
+    <t>WRX/LF-RX</t>
+  </si>
+  <si>
+    <t>Hyperspectral anomaly detection via density peak clustering/Hyperspectral anomaly detection using dual window density</t>
+  </si>
+  <si>
+    <t>DPC</t>
+  </si>
+  <si>
+    <t>基于数据表达</t>
+  </si>
+  <si>
+    <t>Sparse representation for target detection in hyperspectral imagery</t>
+  </si>
+  <si>
+    <t>SRD</t>
+  </si>
+  <si>
+    <t>Hyperspectral anomaly detection by the use of background joint sparse representation</t>
+  </si>
+  <si>
+    <t>BJSR</t>
+  </si>
+  <si>
+    <t>Anomaly detection of hyperspectral imagery using modified collaborative representation</t>
+  </si>
+  <si>
+    <t>CRBORAD</t>
+  </si>
+  <si>
+    <t>基于数据分解</t>
+  </si>
+  <si>
+    <t>Robust recovery of subspace structures by low-rank representation</t>
+  </si>
+  <si>
+    <t>LRR</t>
+  </si>
+  <si>
+    <t>Anomaly detection in hyperspectral images based on low-rank and sparse representation</t>
+  </si>
+  <si>
+    <t>LRaSR</t>
+  </si>
+  <si>
+    <t>Hyperspectral anomaly detection through spectral unmixing and dictionary-based low-rank decomposition</t>
+  </si>
+  <si>
+    <t>ADLR</t>
+  </si>
+  <si>
+    <t>Hyperspectral anomaly detection via background and potential anomaly dictionaries construction.</t>
+  </si>
+  <si>
+    <t>PAB-DC</t>
+  </si>
+  <si>
+    <t>Graph and total variation regularized low-rank representation for hyperspectral anomaly detection</t>
+  </si>
+  <si>
+    <t>GTVLRR</t>
+  </si>
+  <si>
+    <t>Robust principal component analysis?</t>
+  </si>
+  <si>
+    <t>RPCA</t>
+  </si>
+  <si>
+    <t>A hybrid statistics and representation-based anomaly detector for hyperspectral images</t>
+  </si>
+  <si>
+    <t>HSRAD</t>
+  </si>
+  <si>
+    <t>Low-rank and sparse decomposition with mixture of Gaussian for hyperspectral anomaly detection</t>
+  </si>
+  <si>
+    <t>LSDM-MoG</t>
+  </si>
+  <si>
+    <t>A hyperspectral anomaly detection method based on low-rank and sparse decomposition with density peak guided collaborative representation</t>
+  </si>
+  <si>
+    <t>GoDec: randomized low-rank and sparse matrix decomposition in noisy case//Proceedings of the 28th Inter‐ national Conference on Machine Learning</t>
+  </si>
+  <si>
+    <t>Go-Dec</t>
+  </si>
+  <si>
+    <t>LSMAD</t>
+  </si>
+  <si>
+    <t>A tensor decomposition-based anomaly detection algorithm for hyperspectral image</t>
+  </si>
+  <si>
+    <t>Structure tensor and guided filtering-based algorithm for hyperspectral anomaly detection</t>
+  </si>
+  <si>
+    <t>基于CNN</t>
+  </si>
+  <si>
+    <t>Transferred deep learning for anomaly detection in hyperspectral imagery</t>
+  </si>
+  <si>
+    <t>CNND</t>
+  </si>
+  <si>
+    <t>Hyperspectral anomaly detection via convolutional neural network and low rank with density-based clustering</t>
+  </si>
+  <si>
+    <t>DBSCAN</t>
+  </si>
+  <si>
+    <t>Hyperspectral anomaly detection via deep plug-and-play denoising CNN regularization</t>
+  </si>
+  <si>
+    <t>DeCNN-AD</t>
+  </si>
+  <si>
+    <t>https://github.com/FxyPd/DeCNNAD</t>
+  </si>
+  <si>
+    <t>基于GAN</t>
+  </si>
+  <si>
+    <t>Semisupervised spectral learning with generative adversarial network for hyperspectral anomaly detection</t>
+  </si>
+  <si>
+    <t>semiDRX</t>
+  </si>
+  <si>
+    <t>Discriminative reconstruction constrained generative adversarial network for hyperspectral anomaly detection</t>
+  </si>
+  <si>
+    <t>HADGAN</t>
+  </si>
+  <si>
+    <t>sparseHAD</t>
+  </si>
+  <si>
+    <t>https://github.com/JiangThea/HAD</t>
+  </si>
+  <si>
+    <t>Unsupervised generative adversarial network with background enhancement and irredundant pooling for hyperspectral anomaly detection</t>
+  </si>
+  <si>
+    <t>双GAN</t>
+  </si>
+  <si>
+    <t>傅里叶变换</t>
+  </si>
+  <si>
+    <t>Fractional Fourier transform-based tensor RX for hyperspectral anomaly detection</t>
+  </si>
+  <si>
+    <t>FrFT-TRX</t>
+  </si>
+  <si>
+    <t>空谱结合</t>
+  </si>
+  <si>
+    <t>Spectral-spatial deep support vector data description for hyperspectral anomaly detection</t>
+  </si>
+  <si>
+    <t>ssDSVDD</t>
+  </si>
+  <si>
+    <t>视觉注意力机制</t>
+  </si>
+  <si>
+    <t>Visual attention and background subtraction with adaptive weight for hyperspectral anomaly detection</t>
+  </si>
+  <si>
+    <t>HVAM</t>
+  </si>
+  <si>
+    <t>A bottom-up and top-down human visual attention approach for hyperspectral anomaly detection</t>
+  </si>
+  <si>
+    <t>HVAAD</t>
+  </si>
+  <si>
+    <t>自动编码器</t>
+  </si>
+  <si>
+    <t>Auto-AD: Autonomous hyperspectral anomaly detection network based on fully convolutional autoencoder</t>
+  </si>
+  <si>
+    <t>Auto-AD</t>
+  </si>
+  <si>
+    <t>https://github.com/RSIDEA-WHU2020/Auto-AD</t>
+  </si>
+  <si>
+    <t>One-Step Detection Paradigm for Hyperspectral Anomaly Detection via Spectral Deviation Relationship Learning</t>
+  </si>
+  <si>
+    <t>TDD</t>
+  </si>
+  <si>
+    <t>Anomaly Detection of Hyperspectral Image With Hierarchical Antinoise Mutual-Incoherence- Induced Low-Rank Representation</t>
+  </si>
+  <si>
+    <t>HAD-AHMID</t>
+  </si>
+  <si>
+    <t>https://github.com/HalongL/HAD-AHMID</t>
+  </si>
+  <si>
+    <t>Hyperspectral Target Detection Based on Interpretable Representation Network</t>
+  </si>
+  <si>
+    <t>HTD-IRN</t>
+  </si>
+  <si>
+    <t>https://github.com/shendb2022/HTD-IRN</t>
+  </si>
+  <si>
+    <t>Convolutional Transformer-Inspired Autoencoder for Hyperspectral Anomaly Detection</t>
+  </si>
+  <si>
+    <t>CTA</t>
+  </si>
+  <si>
+    <t>https://github.com/hzhdhz/CTA</t>
+  </si>
+  <si>
+    <t>You Only Train Once: Learning a General Anomaly Enhancement Network With Random Masks for Hyperspectral Anomaly Detection</t>
+  </si>
+  <si>
+    <t>AETNet</t>
+  </si>
+  <si>
+    <t>https://github.com/ZhaoxuLi123/AETNet</t>
+  </si>
+  <si>
+    <t>Hyperspectral Remote Sensing Benchmark Database for Oil Spill Detection with an Isolation Forest-Guided Unsupervised Detector</t>
+  </si>
+  <si>
+    <t>HOSD</t>
+  </si>
+  <si>
+    <t>https://github.com/PuhongDuan/HOSD</t>
+  </si>
+  <si>
+    <t>Spectral–Spatial–Temporal Transformers for Hyperspectral Image Change Detection</t>
+  </si>
+  <si>
+    <t>IEEE_TGRS_SSTFormer</t>
+  </si>
+  <si>
+    <t>https://github.com/yanhengwang-heu/IEEE_TGRS_SSTFormer</t>
+  </si>
+  <si>
+    <t>A DUAL SPARSITY CONSTRAINED APPROACH FOR HYPERSPECTRAL TARGET DETECTION</t>
+  </si>
+  <si>
+    <t>DSC</t>
+  </si>
+  <si>
+    <t>https://github.com/shendb2022/DSC</t>
+  </si>
+  <si>
+    <t>CROSS-AD: MULTISPECTRAL AND HYPERSPECTRAL HIGH-SPEED ARTIFICIAL IMITATION OBJECT ANOMALY DETECTION</t>
+  </si>
+  <si>
+    <t>Cross-AD</t>
+  </si>
+  <si>
+    <t>https://github.com/XingshiLuo/Cross-AD</t>
+  </si>
+  <si>
+    <t>LRR-Net: An Interpretable Deep Unfolding Network for Hyperspectral Anomaly Detection</t>
+  </si>
+  <si>
+    <t>RSAAE: Residual Self-Attention-Based Autoencoder for Hyperspectral Anomaly Detection</t>
+  </si>
+  <si>
+    <t>GRX、LRX、SRX-Segmented、CRD、RPCA-RX、LSMAD、LRASR 和 LSDM-MoG</t>
   </si>
 </sst>
 </file>
@@ -70,7 +382,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -78,7 +390,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -532,12 +844,12 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -662,12 +974,21 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -980,28 +1301,36 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:D75"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="C38" workbookViewId="0">
+      <selection activeCell="F68" sqref="F68"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="124.125" customWidth="1"/>
+    <col min="1" max="1" width="143.033333333333" customWidth="1"/>
+    <col min="3" max="3" width="37.375" customWidth="1"/>
+    <col min="4" max="4" width="57.3833333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B2">
         <v>2021</v>
@@ -1009,7 +1338,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B3">
         <v>2022</v>
@@ -1017,7 +1346,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B4">
         <v>2022</v>
@@ -1025,13 +1354,542 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B5">
         <v>2019</v>
       </c>
     </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" ht="27" spans="1:3">
+      <c r="A8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8">
+        <v>2005</v>
+      </c>
+      <c r="C8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9">
+        <v>2016</v>
+      </c>
+      <c r="C9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10">
+        <v>2014</v>
+      </c>
+      <c r="C10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11">
+        <v>2014</v>
+      </c>
+      <c r="C11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13">
+        <v>2020</v>
+      </c>
+      <c r="C13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16">
+        <v>2011</v>
+      </c>
+      <c r="C16" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17">
+        <v>2015</v>
+      </c>
+      <c r="C17" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18">
+        <v>2018</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21">
+        <v>2011</v>
+      </c>
+      <c r="C21" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22">
+        <v>2016</v>
+      </c>
+      <c r="C22" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23">
+        <v>2018</v>
+      </c>
+      <c r="C23" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
+        <v>33</v>
+      </c>
+      <c r="B24">
+        <v>2019</v>
+      </c>
+      <c r="C24" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
+        <v>35</v>
+      </c>
+      <c r="B25">
+        <v>2020</v>
+      </c>
+      <c r="C25" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
+        <v>37</v>
+      </c>
+      <c r="B26">
+        <v>2011</v>
+      </c>
+      <c r="C26" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B27">
+        <v>2019</v>
+      </c>
+      <c r="C27" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B28">
+        <v>2021</v>
+      </c>
+      <c r="C28" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
+        <v>43</v>
+      </c>
+      <c r="B29">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="30" ht="27" spans="1:3">
+      <c r="A30" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B30">
+        <v>2011</v>
+      </c>
+      <c r="C30" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3">
+      <c r="B31">
+        <v>2016</v>
+      </c>
+      <c r="C31" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" t="s">
+        <v>50</v>
+      </c>
+      <c r="B36">
+        <v>2017</v>
+      </c>
+      <c r="C36" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B37">
+        <v>2019</v>
+      </c>
+      <c r="C37" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" t="s">
+        <v>54</v>
+      </c>
+      <c r="B38">
+        <v>2021</v>
+      </c>
+      <c r="C38" t="s">
+        <v>55</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" t="s">
+        <v>58</v>
+      </c>
+      <c r="B41">
+        <v>2020</v>
+      </c>
+      <c r="C41" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" t="s">
+        <v>60</v>
+      </c>
+      <c r="B42">
+        <v>2020</v>
+      </c>
+      <c r="C42" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B43">
+        <v>2020</v>
+      </c>
+      <c r="C43" t="s">
+        <v>62</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" t="s">
+        <v>64</v>
+      </c>
+      <c r="B44">
+        <v>2022</v>
+      </c>
+      <c r="C44" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" t="s">
+        <v>67</v>
+      </c>
+      <c r="B47">
+        <v>2022</v>
+      </c>
+      <c r="C47" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" t="s">
+        <v>70</v>
+      </c>
+      <c r="B50">
+        <v>2022</v>
+      </c>
+      <c r="C50" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B53">
+        <v>2021</v>
+      </c>
+      <c r="C53" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B54">
+        <v>2021</v>
+      </c>
+      <c r="C54" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" t="s">
+        <v>78</v>
+      </c>
+      <c r="B57">
+        <v>2020</v>
+      </c>
+      <c r="C57" t="s">
+        <v>79</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" t="s">
+        <v>81</v>
+      </c>
+      <c r="B59">
+        <v>2024</v>
+      </c>
+      <c r="C59" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" t="s">
+        <v>83</v>
+      </c>
+      <c r="C60" t="s">
+        <v>84</v>
+      </c>
+      <c r="D60" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" t="s">
+        <v>86</v>
+      </c>
+      <c r="C61" t="s">
+        <v>87</v>
+      </c>
+      <c r="D61" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" t="s">
+        <v>89</v>
+      </c>
+      <c r="C62" t="s">
+        <v>90</v>
+      </c>
+      <c r="D62" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" t="s">
+        <v>92</v>
+      </c>
+      <c r="C63" t="s">
+        <v>93</v>
+      </c>
+      <c r="D63" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="64" spans="4:4">
+      <c r="D64" s="4"/>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" t="s">
+        <v>95</v>
+      </c>
+      <c r="C65" t="s">
+        <v>96</v>
+      </c>
+      <c r="D65" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" t="s">
+        <v>98</v>
+      </c>
+      <c r="C66" t="s">
+        <v>99</v>
+      </c>
+      <c r="D66" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" t="s">
+        <v>101</v>
+      </c>
+      <c r="C67" t="s">
+        <v>102</v>
+      </c>
+      <c r="D67" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" t="s">
+        <v>104</v>
+      </c>
+      <c r="C68" t="s">
+        <v>105</v>
+      </c>
+      <c r="D68" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1">
+      <c r="A69" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1">
+      <c r="A70" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1">
+      <c r="A75" t="s">
+        <v>109</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D43" r:id="rId1" display="https://github.com/JiangThea/HAD" tooltip="https://github.com/JiangThea/HAD"/>
+    <hyperlink ref="D38" r:id="rId2" display="https://github.com/FxyPd/DeCNNAD" tooltip="https://github.com/FxyPd/DeCNNAD"/>
+    <hyperlink ref="D57" r:id="rId3" display="https://github.com/RSIDEA-WHU2020/Auto-AD" tooltip="https://github.com/RSIDEA-WHU2020/Auto-AD"/>
+    <hyperlink ref="D60" r:id="rId4" display="https://github.com/HalongL/HAD-AHMID" tooltip="https://github.com/HalongL/HAD-AHMID"/>
+    <hyperlink ref="D61" r:id="rId5" display="https://github.com/shendb2022/HTD-IRN" tooltip="https://github.com/shendb2022/HTD-IRN"/>
+    <hyperlink ref="D62" r:id="rId6" display="https://github.com/hzhdhz/CTA" tooltip="https://github.com/hzhdhz/CTA"/>
+    <hyperlink ref="D63" r:id="rId7" display="https://github.com/ZhaoxuLi123/AETNet" tooltip="https://github.com/ZhaoxuLi123/AETNet"/>
+    <hyperlink ref="D65" r:id="rId8" display="https://github.com/PuhongDuan/HOSD" tooltip="https://github.com/PuhongDuan/HOSD"/>
+    <hyperlink ref="D66" r:id="rId9" display="https://github.com/yanhengwang-heu/IEEE_TGRS_SSTFormer" tooltip="https://github.com/yanhengwang-heu/IEEE_TGRS_SSTFormer"/>
+    <hyperlink ref="D67" r:id="rId10" display="https://github.com/shendb2022/DSC" tooltip="https://github.com/shendb2022/DSC"/>
+    <hyperlink ref="D68" r:id="rId11" display="https://github.com/XingshiLuo/Cross-AD" tooltip="https://github.com/XingshiLuo/Cross-AD"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
